--- a/src/test/resources/VtigerCRMTestData.xlsx
+++ b/src/test/resources/VtigerCRMTestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -793,7 +793,7 @@
         <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5">

--- a/src/test/resources/VtigerCRMTestData.xlsx
+++ b/src/test/resources/VtigerCRMTestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="34">
   <si>
     <t>TestCase Name</t>
   </si>
